--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164741.3777888787</v>
+        <v>190683.3740498727</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484459</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8356064.954645093</v>
+        <v>8393943.74525586</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.1094666762655</v>
+        <v>360.2729784085931</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,7 +665,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,7 +674,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.99462631231972</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,7 +874,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.78580588144442</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>341.8706136650495</v>
+        <v>265.2735618120763</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -947,7 +947,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,22 +1102,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>158.7868437042811</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>142.0902352657462</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,7 +1133,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>173.6096672798296</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1148,7 +1148,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>36.9771593773018</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>32.69681262526384</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645593295</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>163.5395542426777</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.485501777224</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225813</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855484</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283453</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1661,13 +1661,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>389.4258469646091</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.30825486907156</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>24.62703520776689</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>33.08339867820326</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>206.8981232563536</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225714</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>163.5395542426763</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>18.2277202765946</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8284742946041</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7884964950071</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>167.6892286721835</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>67.42894579208246</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225763</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112152</v>
+        <v>286.238853011215</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>103.8284742946034</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3506,7 +3506,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225773</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430579</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3901,7 +3901,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>111.2693566202703</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015867</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225726</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>958.9147199317615</v>
+        <v>1667.248894477528</v>
       </c>
       <c r="C2" t="n">
-        <v>924.8126511555888</v>
+        <v>1633.146825701355</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>1601.277444916204</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>1167.502700074499</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>739.6352704837067</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069706</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>524.3060841805661</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.71137679769</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756285</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>2050.508772920375</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>2035.40671354009</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.32832263506</v>
+        <v>2031.160993880147</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397437</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>373.6656095163992</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>981.3682558249611</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.603617826933</v>
+        <v>813.7361418590956</v>
       </c>
       <c r="C4" t="n">
-        <v>122.603617826933</v>
+        <v>641.1744303423205</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>619.9677370975531</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>619.9677370975531</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>277.669408085137</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>410.4454242860123</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1077.736506291242</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1519.995309448886</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674668</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.17145264501</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214714</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.70503751271</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2028.825591091165</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1750.392590344271</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1750.392590344271</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1478.366185930562</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1232.974431263975</v>
       </c>
       <c r="Y4" t="n">
-        <v>122.603617826933</v>
+        <v>1005.554760578083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.044874488545</v>
+        <v>866.1045910388295</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.942805712373</v>
+        <v>832.0025222626568</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.073424927221</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.33908412592</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.614446335406</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y5" t="n">
-        <v>1593.368726675464</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2329.010885218351</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>2050.577884471456</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.765608785789</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W7" t="n">
-        <v>1675.765608785789</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.174776892337</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.811476609681</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D8" t="n">
-        <v>1184.901691784125</v>
+        <v>912.4008182974576</v>
       </c>
       <c r="E8" t="n">
-        <v>1155.167350982825</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>727.2999213920325</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152964</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851263</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851263</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851263</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576064</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>946.8773380567001</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>946.8773380567001</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377069</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996783</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336841</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>607.632388005879</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676351</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934628</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851263</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264737</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255674</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683212</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908993</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925631</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925631</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925631</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789381</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D11" t="n">
         <v>1649.322926419992</v>
@@ -5033,58 +5033,58 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1060.728307047303</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2135.788273300162</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>3292.836108510713</v>
+        <v>2859.155227898998</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.836108510713</v>
+        <v>2859.155227898998</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3839.334894469305</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580467</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412717</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427942</v>
       </c>
       <c r="E13" t="n">
         <v>439.0343056935313</v>
@@ -5188,25 +5188,25 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,22 +5224,22 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W13" t="n">
         <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y13" t="n">
         <v>1139.050632477034</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168565</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526433</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847282</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>516.962436093936</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397514</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112635</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5349,10 +5349,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>463.9100988326895</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>287.2030447944458</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>121.6117698202734</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>121.6117698202734</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5492,7 +5492,7 @@
         <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D17" t="n">
         <v>1648.906137047132</v>
@@ -5501,64 +5501,64 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146351</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>385.866131237899</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>498.7803825855964</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1573.840348838456</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2730.888184049007</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>3856.619167485454</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>4836.798834055759</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4836.798834055759</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S17" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W17" t="n">
         <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D18" t="n">
         <v>401.3609716556035</v>
@@ -5586,10 +5586,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J18" t="n">
         <v>447.3579748077851</v>
@@ -5634,10 +5634,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>914.5724765508967</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>748.6944837524194</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>578.9364800031567</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>402.2294259649129</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111519</v>
+        <v>236.6381509907406</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2563.032187437147</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2317.152741015602</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2038.719740268708</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2252.656868168565</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526435</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847303</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939381</v>
+        <v>787.6807519874949</v>
       </c>
       <c r="G20" t="n">
-        <v>115.564604717202</v>
+        <v>386.2829206107588</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397503</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>498.7803825855955</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>1573.840348838455</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2730.888184049006</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>3856.619167485453</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="O20" t="n">
-        <v>4836.798834055759</v>
+        <v>3461.990173263765</v>
       </c>
       <c r="P20" t="n">
-        <v>4836.798834055759</v>
+        <v>4290.300048097161</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D21" t="n">
         <v>401.3609716556035</v>
@@ -5823,10 +5823,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J21" t="n">
         <v>447.3579748077851</v>
@@ -5871,10 +5871,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>965.4711828007307</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>792.9094712839557</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>457.2734747362157</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>280.5664206979719</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907406</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111577</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458056</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169412</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849023</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.02666852346</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
         <v>2197.695917749241</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881912</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243222</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957679</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789929</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805156</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312528</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>264.673462993009</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878952</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580943</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500647</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814755</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6236,16 +6236,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957675</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457407</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710512</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167234</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814755</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2178.821488698831</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135278</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258802</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134641</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.634124109936</v>
+        <v>952.7568773477105</v>
       </c>
       <c r="C37" t="n">
-        <v>885.0724125931614</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>719.1944197946841</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>549.4364160454214</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>372.7293620071777</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>207.1380870330053</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7111,7 +7111,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
         <v>2718.920450173579</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1476.872413514815</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1249.452742828924</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7163,7 +7163,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7397,13 +7397,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7418,43 +7418,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.756877347711</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>866.6126368575084</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7570,10 +7570,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1230.992967093271</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7655,13 +7655,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
@@ -7673,25 +7673,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903948</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736197</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805804188</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,16 +8052,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>73.80512472486794</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>251.5971719568367</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>270.2148169866472</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8690,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>534.0784271851207</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>421.9740460140688</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>309.606269745711</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>406.105460509577</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>406.1054605095761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>168.8387779969839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11303,16 +11303,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>268.0111327346223</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.38105307846772</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>268.011132734624</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>11.38105307846791</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>63.14631452530452</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.7319563997981</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>49.73195639979966</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627262</v>
+        <v>8.789189859683916</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>268.0111327346236</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>268.0111327346213</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146865729423506</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.146865729423844</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>90.22000922290084</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.67467827192579</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,10 +25360,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627256</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>120.4463752142714</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>52.94985625022226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.592177662726</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>706977.0294351176</v>
+        <v>718640.1476171424</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>706977.0294351176</v>
+        <v>721942.8319043184</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>709152.3951733584</v>
+        <v>721942.8319043184</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>709273.0845814729</v>
+        <v>709273.0845814727</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>709273.0845814728</v>
+        <v>709273.0845814726</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>709273.0845814728</v>
+        <v>709273.0845814724</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>709273.0845814728</v>
+        <v>709273.0845814724</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739205.2192499505</v>
+        <v>739205.2192499506</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739205.2192499506</v>
+        <v>739205.2192499505</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>268073.6599452042</v>
       </c>
       <c r="C2" t="n">
-        <v>268073.6599452041</v>
+        <v>268073.6599452042</v>
       </c>
       <c r="D2" t="n">
         <v>268073.6599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>252761.9489858382</v>
+        <v>252761.9489858381</v>
       </c>
       <c r="F2" t="n">
-        <v>252761.9489858382</v>
+        <v>252761.9489858381</v>
       </c>
       <c r="G2" t="n">
-        <v>252761.9489858382</v>
+        <v>252761.9489858381</v>
       </c>
       <c r="H2" t="n">
-        <v>252761.9489858382</v>
+        <v>252761.9489858381</v>
       </c>
       <c r="I2" t="n">
         <v>263428.7920686761</v>
@@ -26338,7 +26338,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="K2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.792068676</v>
       </c>
       <c r="L2" t="n">
         <v>263428.7920686761</v>
@@ -26347,10 +26347,10 @@
         <v>263428.7920686761</v>
       </c>
       <c r="N2" t="n">
+        <v>263428.7920686762</v>
+      </c>
+      <c r="O2" t="n">
         <v>263428.7920686761</v>
-      </c>
-      <c r="O2" t="n">
-        <v>263428.792068676</v>
       </c>
       <c r="P2" t="n">
         <v>263428.7920686761</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390631</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283964</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784487</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>174244.3817256394</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>200045.3005001112</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804611</v>
+        <v>78141.89423804609</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804611</v>
+        <v>78141.89423804606</v>
       </c>
       <c r="G4" t="n">
-        <v>78141.89423804612</v>
+        <v>78141.89423804606</v>
       </c>
       <c r="H4" t="n">
-        <v>78141.89423804611</v>
+        <v>78141.89423804608</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904287</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="P4" t="n">
         <v>81439.57146904283</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814198</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,10 +26503,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-139503.4016935948</v>
+        <v>-182832.1145424805</v>
       </c>
       <c r="C6" t="n">
-        <v>2687.898966115026</v>
+        <v>11257.50274998172</v>
       </c>
       <c r="D6" t="n">
-        <v>-4527.718175378788</v>
+        <v>28598.04712388806</v>
       </c>
       <c r="E6" t="n">
-        <v>-122698.5812818834</v>
+        <v>-60710.92129476665</v>
       </c>
       <c r="F6" t="n">
-        <v>101100.7124701445</v>
+        <v>101024.1539153477</v>
       </c>
       <c r="G6" t="n">
-        <v>101100.7124701445</v>
+        <v>101024.1539153477</v>
       </c>
       <c r="H6" t="n">
-        <v>101100.7124701445</v>
+        <v>101024.1539153477</v>
       </c>
       <c r="I6" t="n">
-        <v>85906.26636100118</v>
+        <v>85883.04202161852</v>
       </c>
       <c r="J6" t="n">
-        <v>-6743.483351149465</v>
+        <v>-56360.0718311554</v>
       </c>
       <c r="K6" t="n">
-        <v>104270.9819938407</v>
+        <v>90433.74908661318</v>
       </c>
       <c r="L6" t="n">
-        <v>95323.37090533125</v>
+        <v>104247.7576544581</v>
       </c>
       <c r="M6" t="n">
-        <v>-82520.00461662734</v>
+        <v>-30742.18695854518</v>
       </c>
       <c r="N6" t="n">
-        <v>104270.9819938408</v>
+        <v>104247.7576544583</v>
       </c>
       <c r="O6" t="n">
-        <v>104270.9819938407</v>
+        <v>104247.7576544581</v>
       </c>
       <c r="P6" t="n">
-        <v>104270.9819938407</v>
+        <v>104247.7576544582</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080615</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.9271081037932</v>
+        <v>61.76359637146555</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,7 +27385,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>143.2245865581728</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>139.3596680975884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.16596111500922</v>
+        <v>156.7630129679824</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>84.63380825304819</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>100.8476018541754</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>260.1513808085813</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>367.2261030860413</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.7508739136384</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805804188</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>73.80512472486794</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>251.5971719568367</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>270.2148169866472</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>534.0784271851207</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>421.9740460140688</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>309.606269745711</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>406.105460509577</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36045,16 +36045,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
-        <v>406.1054605095761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36534,7 +36534,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,19 +36604,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>168.8387779969839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,7 +36847,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37233,16 +37233,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821539</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37479,10 +37479,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38023,16 +38023,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.891691782153</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
